--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.9544822345212</v>
+        <v>216.5832213333333</v>
       </c>
       <c r="H2">
-        <v>34.9544822345212</v>
+        <v>649.7496640000001</v>
       </c>
       <c r="I2">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="J2">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.88543315626485</v>
+        <v>0.027767</v>
       </c>
       <c r="N2">
-        <v>3.88543315626485</v>
+        <v>0.083301</v>
       </c>
       <c r="O2">
-        <v>0.3788121280650537</v>
+        <v>0.002463719941166009</v>
       </c>
       <c r="P2">
-        <v>0.3788121280650537</v>
+        <v>0.002463719941166009</v>
       </c>
       <c r="Q2">
-        <v>135.8133042340793</v>
+        <v>6.013866306762667</v>
       </c>
       <c r="R2">
-        <v>135.8133042340793</v>
+        <v>54.124796760864</v>
       </c>
       <c r="S2">
-        <v>0.04578090088654186</v>
+        <v>0.001067138417729909</v>
       </c>
       <c r="T2">
-        <v>0.04578090088654186</v>
+        <v>0.001067138417729909</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.9544822345212</v>
+        <v>216.5832213333333</v>
       </c>
       <c r="H3">
-        <v>34.9544822345212</v>
+        <v>649.7496640000001</v>
       </c>
       <c r="I3">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="J3">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.37145374994741</v>
+        <v>3.987076</v>
       </c>
       <c r="N3">
-        <v>6.37145374994741</v>
+        <v>11.961228</v>
       </c>
       <c r="O3">
-        <v>0.6211878719349465</v>
+        <v>0.3537666527944829</v>
       </c>
       <c r="P3">
-        <v>0.6211878719349465</v>
+        <v>0.3537666527944829</v>
       </c>
       <c r="Q3">
-        <v>222.7108669106102</v>
+        <v>863.5337637808213</v>
       </c>
       <c r="R3">
-        <v>222.7108669106102</v>
+        <v>7771.803874027392</v>
       </c>
       <c r="S3">
-        <v>0.07507294062161568</v>
+        <v>0.1532308846475635</v>
       </c>
       <c r="T3">
-        <v>0.07507294062161568</v>
+        <v>0.1532308846475635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>158.264630314358</v>
+        <v>216.5832213333333</v>
       </c>
       <c r="H4">
-        <v>158.264630314358</v>
+        <v>649.7496640000001</v>
       </c>
       <c r="I4">
-        <v>0.5471941601088505</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="J4">
-        <v>0.5471941601088505</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.88543315626485</v>
+        <v>7.255512666666667</v>
       </c>
       <c r="N4">
-        <v>3.88543315626485</v>
+        <v>21.766538</v>
       </c>
       <c r="O4">
-        <v>0.3788121280650537</v>
+        <v>0.6437696272643511</v>
       </c>
       <c r="P4">
-        <v>0.3788121280650537</v>
+        <v>0.6437696272643511</v>
       </c>
       <c r="Q4">
-        <v>614.9266420874056</v>
+        <v>1571.42230577147</v>
       </c>
       <c r="R4">
-        <v>614.9266420874056</v>
+        <v>14142.80075194323</v>
       </c>
       <c r="S4">
-        <v>0.2072837842556033</v>
+        <v>0.2788430981714258</v>
       </c>
       <c r="T4">
-        <v>0.2072837842556033</v>
+        <v>0.2788430981714258</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>158.264630314358</v>
+        <v>161.954974</v>
       </c>
       <c r="H5">
-        <v>158.264630314358</v>
+        <v>485.864922</v>
       </c>
       <c r="I5">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313607</v>
       </c>
       <c r="J5">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313606</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>6.37145374994741</v>
+        <v>0.027767</v>
       </c>
       <c r="N5">
-        <v>6.37145374994741</v>
+        <v>0.083301</v>
       </c>
       <c r="O5">
-        <v>0.6211878719349465</v>
+        <v>0.002463719941166009</v>
       </c>
       <c r="P5">
-        <v>0.6211878719349465</v>
+        <v>0.002463719941166009</v>
       </c>
       <c r="Q5">
-        <v>1008.375772300457</v>
+        <v>4.497003763058</v>
       </c>
       <c r="R5">
-        <v>1008.375772300457</v>
+        <v>40.473033867522</v>
       </c>
       <c r="S5">
-        <v>0.3399103758532472</v>
+        <v>0.0007979767483089391</v>
       </c>
       <c r="T5">
-        <v>0.3399103758532472</v>
+        <v>0.0007979767483089389</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.445568277803339</v>
+        <v>161.954974</v>
       </c>
       <c r="H6">
-        <v>0.445568277803339</v>
+        <v>485.864922</v>
       </c>
       <c r="I6">
-        <v>0.001540535993793845</v>
+        <v>0.3238910133313607</v>
       </c>
       <c r="J6">
-        <v>0.001540535993793845</v>
+        <v>0.3238910133313606</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.88543315626485</v>
+        <v>3.987076</v>
       </c>
       <c r="N6">
-        <v>3.88543315626485</v>
+        <v>11.961228</v>
       </c>
       <c r="O6">
-        <v>0.3788121280650537</v>
+        <v>0.3537666527944829</v>
       </c>
       <c r="P6">
-        <v>0.3788121280650537</v>
+        <v>0.3537666527944829</v>
       </c>
       <c r="Q6">
-        <v>1.731225759956921</v>
+        <v>645.726789916024</v>
       </c>
       <c r="R6">
-        <v>1.731225759956921</v>
+        <v>5811.541109244215</v>
       </c>
       <c r="S6">
-        <v>0.0005835737181698589</v>
+        <v>0.1145818396564487</v>
       </c>
       <c r="T6">
-        <v>0.0005835737181698589</v>
+        <v>0.1145818396564487</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.445568277803339</v>
+        <v>161.954974</v>
       </c>
       <c r="H7">
-        <v>0.445568277803339</v>
+        <v>485.864922</v>
       </c>
       <c r="I7">
-        <v>0.001540535993793845</v>
+        <v>0.3238910133313607</v>
       </c>
       <c r="J7">
-        <v>0.001540535993793845</v>
+        <v>0.3238910133313606</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.37145374994741</v>
+        <v>7.255512666666667</v>
       </c>
       <c r="N7">
-        <v>6.37145374994741</v>
+        <v>21.766538</v>
       </c>
       <c r="O7">
-        <v>0.6211878719349465</v>
+        <v>0.6437696272643511</v>
       </c>
       <c r="P7">
-        <v>0.6211878719349465</v>
+        <v>0.6437696272643511</v>
       </c>
       <c r="Q7">
-        <v>2.838917674467694</v>
+        <v>1175.066365286671</v>
       </c>
       <c r="R7">
-        <v>2.838917674467694</v>
+        <v>10575.59728758004</v>
       </c>
       <c r="S7">
-        <v>0.0009569622756239867</v>
+        <v>0.208511196926603</v>
       </c>
       <c r="T7">
-        <v>0.0009569622756239867</v>
+        <v>0.208511196926603</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>95.5647040097259</v>
+        <v>0.4608033333333333</v>
       </c>
       <c r="H8">
-        <v>95.5647040097259</v>
+        <v>1.38241</v>
       </c>
       <c r="I8">
-        <v>0.3304114623891982</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="J8">
-        <v>0.3304114623891982</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.88543315626485</v>
+        <v>0.027767</v>
       </c>
       <c r="N8">
-        <v>3.88543315626485</v>
+        <v>0.083301</v>
       </c>
       <c r="O8">
-        <v>0.3788121280650537</v>
+        <v>0.002463719941166009</v>
       </c>
       <c r="P8">
-        <v>0.3788121280650537</v>
+        <v>0.002463719941166009</v>
       </c>
       <c r="Q8">
-        <v>371.3102695280255</v>
+        <v>0.01279512615666667</v>
       </c>
       <c r="R8">
-        <v>371.3102695280255</v>
+        <v>0.11515613541</v>
       </c>
       <c r="S8">
-        <v>0.1251638692047386</v>
+        <v>2.270447992188578E-06</v>
       </c>
       <c r="T8">
-        <v>0.1251638692047386</v>
+        <v>2.270447992188578E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4608033333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.38241</v>
+      </c>
+      <c r="I9">
+        <v>0.0009215527926904059</v>
+      </c>
+      <c r="J9">
+        <v>0.0009215527926904059</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.987076</v>
+      </c>
+      <c r="N9">
+        <v>11.961228</v>
+      </c>
+      <c r="O9">
+        <v>0.3537666527944829</v>
+      </c>
+      <c r="P9">
+        <v>0.3537666527944829</v>
+      </c>
+      <c r="Q9">
+        <v>1.837257911053333</v>
+      </c>
+      <c r="R9">
+        <v>16.53532119948</v>
+      </c>
+      <c r="S9">
+        <v>0.000326014646843493</v>
+      </c>
+      <c r="T9">
+        <v>0.000326014646843493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>95.5647040097259</v>
-      </c>
-      <c r="H9">
-        <v>95.5647040097259</v>
-      </c>
-      <c r="I9">
-        <v>0.3304114623891982</v>
-      </c>
-      <c r="J9">
-        <v>0.3304114623891982</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>6.37145374994741</v>
-      </c>
-      <c r="N9">
-        <v>6.37145374994741</v>
-      </c>
-      <c r="O9">
-        <v>0.6211878719349465</v>
-      </c>
-      <c r="P9">
-        <v>0.6211878719349465</v>
-      </c>
-      <c r="Q9">
-        <v>608.8860917253824</v>
-      </c>
-      <c r="R9">
-        <v>608.8860917253824</v>
-      </c>
-      <c r="S9">
-        <v>0.2052475931844596</v>
-      </c>
-      <c r="T9">
-        <v>0.2052475931844596</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4608033333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.38241</v>
+      </c>
+      <c r="I10">
+        <v>0.0009215527926904059</v>
+      </c>
+      <c r="J10">
+        <v>0.0009215527926904059</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.255512666666667</v>
+      </c>
+      <c r="N10">
+        <v>21.766538</v>
+      </c>
+      <c r="O10">
+        <v>0.6437696272643511</v>
+      </c>
+      <c r="P10">
+        <v>0.6437696272643511</v>
+      </c>
+      <c r="Q10">
+        <v>3.343364421842222</v>
+      </c>
+      <c r="R10">
+        <v>30.09027979658</v>
+      </c>
+      <c r="S10">
+        <v>0.0005932676978547244</v>
+      </c>
+      <c r="T10">
+        <v>0.0005932676978547244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>121.0302313333333</v>
+      </c>
+      <c r="H11">
+        <v>363.090694</v>
+      </c>
+      <c r="I11">
+        <v>0.2420463126392298</v>
+      </c>
+      <c r="J11">
+        <v>0.2420463126392298</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.027767</v>
+      </c>
+      <c r="N11">
+        <v>0.083301</v>
+      </c>
+      <c r="O11">
+        <v>0.002463719941166009</v>
+      </c>
+      <c r="P11">
+        <v>0.002463719941166009</v>
+      </c>
+      <c r="Q11">
+        <v>3.360646433432667</v>
+      </c>
+      <c r="R11">
+        <v>30.245817900894</v>
+      </c>
+      <c r="S11">
+        <v>0.0005963343271349728</v>
+      </c>
+      <c r="T11">
+        <v>0.0005963343271349727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>121.0302313333333</v>
+      </c>
+      <c r="H12">
+        <v>363.090694</v>
+      </c>
+      <c r="I12">
+        <v>0.2420463126392298</v>
+      </c>
+      <c r="J12">
+        <v>0.2420463126392298</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.987076</v>
+      </c>
+      <c r="N12">
+        <v>11.961228</v>
+      </c>
+      <c r="O12">
+        <v>0.3537666527944829</v>
+      </c>
+      <c r="P12">
+        <v>0.3537666527944829</v>
+      </c>
+      <c r="Q12">
+        <v>482.5567306235814</v>
+      </c>
+      <c r="R12">
+        <v>4343.010575612232</v>
+      </c>
+      <c r="S12">
+        <v>0.08562791384362728</v>
+      </c>
+      <c r="T12">
+        <v>0.08562791384362727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>121.0302313333333</v>
+      </c>
+      <c r="H13">
+        <v>363.090694</v>
+      </c>
+      <c r="I13">
+        <v>0.2420463126392298</v>
+      </c>
+      <c r="J13">
+        <v>0.2420463126392298</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.255512666666667</v>
+      </c>
+      <c r="N13">
+        <v>21.766538</v>
+      </c>
+      <c r="O13">
+        <v>0.6437696272643511</v>
+      </c>
+      <c r="P13">
+        <v>0.6437696272643511</v>
+      </c>
+      <c r="Q13">
+        <v>878.136376488597</v>
+      </c>
+      <c r="R13">
+        <v>7903.227388397372</v>
+      </c>
+      <c r="S13">
+        <v>0.1558220644684676</v>
+      </c>
+      <c r="T13">
+        <v>0.1558220644684675</v>
       </c>
     </row>
   </sheetData>
